--- a/Industrials/Canadian Pacific.xlsx
+++ b/Industrials/Canadian Pacific.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5DA9E5-3A7A-934F-A511-16C4774C95BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D322B334-704F-F641-89D3-37CC732DEF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2433,37 +2433,37 @@
     <v>Powered by Refinitiv</v>
     <v>112.27</v>
     <v>86.42</v>
-    <v>0.82609999999999995</v>
-    <v>-2.35</v>
-    <v>-2.2016000000000001E-2</v>
+    <v>0.83020000000000005</v>
+    <v>-0.91</v>
+    <v>-8.6129999999999991E-3</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
-    <v>Canadian Pacific Kansas City Limited, formerly Canadian Pacific Railway Limited, operates a single-line transnational railway linking Canada, the United States and Mexico, with unrivaled access to the ports from Vancouver to Atlantic Canada, to the Gulf of Mexico, and to the Lazaro Cardenas, Mexico. The Company operates approximately 20,000 miles of rail and provides North American customers with unparalleled rail service and network reach to key markets across the continent. The Company offers a suite of freight transportation services, logistics solutions, and supply chain expertise.</v>
+    <v>Canadian Pacific Kansas City Limited, formerly Canadian Pacific Railway Limited, operates a single-line transnational railway linking Canada, the United States and Mexico, with access to the ports from Vancouver to Atlantic Canada, to the Gulf of Mexico, and to Lazaro Cardenas, Mexico. The Company operates approximately 20,000 miles of rail and provides North American customers with unparalleled rail service and network reach to key markets across the continent. The Company offers a suite of freight transportation services, logistics solutions, and supply chain expertise. It transports ethanol from production areas in the Midwest United States to consumer markets across the Northeast United States and Canada. The Company serves various markets, including Canadian grain; United States grain; bulk; intermodal; automotive; forest and industrial products; transload; and energy, chemicals and plastics. Its wholly owned subsidiary is Canadian Pacific Railway Company.</v>
     <v>12935</v>
     <v>Toronto Stock Exchange</v>
     <v>XTSE</v>
     <v>XTSE</v>
     <v>7550 Ogden Dale Rd SE, CALGARY, AB, T2C 4X9 CA</v>
-    <v>106.45</v>
+    <v>106.25</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>45070.833333333336</v>
+    <v>45082.833333333336</v>
     <v>0</v>
-    <v>103.46</v>
-    <v>99403360000</v>
+    <v>104.64</v>
+    <v>98178250000</v>
     <v>Canadian Pacific Kansas City Limited</v>
     <v>Canadian Pacific Kansas City Limited</v>
-    <v>106.15</v>
-    <v>26.13</v>
-    <v>106.74</v>
-    <v>104.39</v>
-    <v>104.39</v>
+    <v>105.63</v>
+    <v>26.45</v>
+    <v>105.66</v>
+    <v>104.75</v>
+    <v>104.75</v>
     <v>931059400</v>
     <v>CP</v>
     <v>Canadian Pacific Kansas City Limited (XTSE:CP)</v>
-    <v>1634197</v>
-    <v>1011960</v>
+    <v>1190208</v>
+    <v>1154170</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -3049,7 +3049,7 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AE26" sqref="AE26"/>
@@ -4651,15 +4651,15 @@
       </c>
       <c r="AH16" s="30">
         <f>AI101/AA3</f>
-        <v>11.277894259133197</v>
+        <v>11.138898343544362</v>
       </c>
       <c r="AI16" s="30">
         <f>AI101/AA28</f>
-        <v>28.263679272106909</v>
+        <v>27.915339778220073</v>
       </c>
       <c r="AJ16" s="31">
         <f>AI101/AA106</f>
-        <v>23.998879768227908</v>
+        <v>23.70310236600676</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11425,7 +11425,7 @@
       </c>
       <c r="AI95" s="39" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>0.82609999999999995</v>
+        <v>0.83020000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="AI97" s="36">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>7.6513605000000012E-2</v>
+        <v>7.6690110000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="AI100" s="34">
         <f>AI99/AI103</f>
-        <v>0.16505905369614352</v>
+        <v>0.16677522771298298</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="AI101" s="40" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>99403360000</v>
+        <v>98178250000</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12051,7 +12051,7 @@
       </c>
       <c r="AI102" s="34">
         <f>AI101/AI103</f>
-        <v>0.83494094630385651</v>
+        <v>0.83322477228701697</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="AI103" s="41">
         <f>AI99+AI101</f>
-        <v>119054360000</v>
+        <v>117829250000</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12347,7 +12347,7 @@
       </c>
       <c r="AI105" s="26">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>6.8531100503412448E-2</v>
+        <v>6.8595172080991335E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12497,7 +12497,7 @@
       <c r="AE107" s="43"/>
       <c r="AF107" s="46">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>162495446625.13434</v>
+        <v>162256627987.25134</v>
       </c>
       <c r="AG107" s="47" t="s">
         <v>148</v>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="AF108" s="46">
         <f>AF107+AF106</f>
-        <v>169396525277.21786</v>
+        <v>169157706639.33487</v>
       </c>
       <c r="AG108" s="47" t="s">
         <v>144</v>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="AI108" s="51">
         <f>AI105</f>
-        <v>6.8531100503412448E-2</v>
+        <v>6.8595172080991335E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="AC110" s="40">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>139744246425.28748</v>
+        <v>139533629589.3652</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="AC113" s="40">
         <f>AC110+AC111-AC112</f>
-        <v>120544246425.28748</v>
+        <v>120333629589.3652</v>
       </c>
     </row>
     <row r="114" spans="27:29" ht="20" x14ac:dyDescent="0.25">
@@ -12599,7 +12599,7 @@
       </c>
       <c r="AC115" s="55">
         <f>AC113/AC114</f>
-        <v>99.526382414539739</v>
+        <v>99.352488326878472</v>
       </c>
     </row>
     <row r="116" spans="27:29" ht="20" x14ac:dyDescent="0.25">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="AC116" s="56" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>104.39</v>
+        <v>104.75</v>
       </c>
     </row>
     <row r="117" spans="27:29" ht="20" x14ac:dyDescent="0.25">
@@ -12617,7 +12617,7 @@
       </c>
       <c r="AC117" s="58">
         <f>AC115/AC116-1</f>
-        <v>-4.6590838063610085E-2</v>
+        <v>-5.1527557738630381E-2</v>
       </c>
     </row>
     <row r="118" spans="27:29" ht="20" x14ac:dyDescent="0.25">

--- a/Industrials/Canadian Pacific.xlsx
+++ b/Industrials/Canadian Pacific.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D322B334-704F-F641-89D3-37CC732DEF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BB3960-C16F-C94B-B309-8856F249074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -435,9 +429,6 @@
     <t>Debt to Equity</t>
   </si>
   <si>
-    <t>Share Dilution (5yr)</t>
-  </si>
-  <si>
     <t>P/S</t>
   </si>
   <si>
@@ -510,9 +501,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -546,21 +534,56 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>Intrinsic Value XTSE</t>
-  </si>
-  <si>
-    <t>Current Price XTSE</t>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Share Dilution (10y)</t>
+  </si>
+  <si>
+    <t>Intrinsic Value</t>
+  </si>
+  <si>
+    <t>Current Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +858,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +872,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,20 +919,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,78 +933,88 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1086,7 +1067,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>CP</a:t>
+              <a:t>Canadian Pacific Kansas City</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1096,8 +1077,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.48047682119205298"/>
-          <c:y val="2.6837453020049133E-2"/>
+          <c:x val="0.29901986754966886"/>
+          <c:y val="3.3164150426909324E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1134,9 +1115,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.3165562913907282E-2"/>
-          <c:y val="0.12572126855664836"/>
+          <c:y val="0.15735430048966484"/>
           <c:w val="0.8572317880794702"/>
-          <c:h val="0.72088991226823151"/>
+          <c:h val="0.64813376151711166"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1428,11 +1409,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1472,7 +1453,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AA$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AA$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1693,7 +1674,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.34822224539813323"/>
-          <c:y val="0.91827140675896546"/>
+          <c:y val="0.89929154398477429"/>
           <c:w val="0.30355550920373364"/>
           <c:h val="5.0011603308249185E-2"/>
         </c:manualLayout>
@@ -2275,15 +2256,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>1588</xdr:rowOff>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2432,10 +2413,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>112.27</v>
-    <v>86.42</v>
-    <v>0.83020000000000005</v>
-    <v>-0.91</v>
-    <v>-8.6129999999999991E-3</v>
+    <v>90</v>
+    <v>0.83109999999999995</v>
+    <v>0.84</v>
+    <v>7.8500000000000011E-3</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -2445,25 +2426,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>7550 Ogden Dale Rd SE, CALGARY, AB, T2C 4X9 CA</v>
-    <v>106.25</v>
+    <v>108.08</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>45082.833333333336</v>
+    <v>45111.833333333336</v>
     <v>0</v>
-    <v>104.64</v>
-    <v>98178250000</v>
+    <v>106.93</v>
+    <v>100405445696</v>
     <v>Canadian Pacific Kansas City Limited</v>
     <v>Canadian Pacific Kansas City Limited</v>
-    <v>105.63</v>
-    <v>26.45</v>
-    <v>105.66</v>
-    <v>104.75</v>
-    <v>104.75</v>
+    <v>107.03</v>
+    <v>27</v>
+    <v>107</v>
+    <v>107.84</v>
+    <v>107.84</v>
     <v>931059400</v>
     <v>CP</v>
     <v>Canadian Pacific Kansas City Limited (XTSE:CP)</v>
-    <v>1190208</v>
-    <v>1154170</v>
+    <v>316857</v>
+    <v>1159720</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -3049,10 +3030,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE26" sqref="AE26"/>
+      <selection pane="bottomRight" activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3144,19 +3125,19 @@
       <c r="AA1" s="8">
         <v>2022</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2023</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2024</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="23">
         <v>2025</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="23">
         <v>2026</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3165,91 +3146,91 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
@@ -3336,37 +3317,37 @@
       <c r="AA3" s="1">
         <v>8814000000</v>
       </c>
-      <c r="AB3" s="28">
-        <v>9794000000</v>
-      </c>
-      <c r="AC3" s="28">
-        <v>11618000000</v>
-      </c>
-      <c r="AD3" s="28">
-        <v>12362000000</v>
-      </c>
-      <c r="AE3" s="28">
-        <v>12971000000</v>
-      </c>
-      <c r="AF3" s="28">
-        <v>14615000000</v>
+      <c r="AB3" s="24">
+        <v>13849000000</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>15169000000</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>16451000000</v>
+      </c>
+      <c r="AE3" s="24">
+        <v>17770000000</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>19098000000</v>
       </c>
       <c r="AG3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3471,23 +3452,23 @@
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11118674835488984</v>
+        <v>0.57125028363966424</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18623647130896459</v>
+        <v>9.5313741064336766E-2</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>6.4038560853847404E-2</v>
+        <v>8.4514470301272349E-2</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="0"/>
-        <v>4.9263873159682836E-2</v>
+        <v>8.0177496808704563E-2</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12674427569192814</v>
+        <v>7.4732695554305062E-2</v>
       </c>
       <c r="AG4" s="17">
         <f>(AA4+Z4+Y4)/3</f>
@@ -3502,7 +3483,7 @@
         <v>0.133916164422443</v>
       </c>
       <c r="AJ4" s="17">
-        <f>(AA105+Z105+Y105)/3</f>
+        <f>(AA106+Z106+Y106)/3</f>
         <v>0.5565241204754976</v>
       </c>
     </row>
@@ -3511,16 +3492,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="1">
         <v>2530253626</v>
@@ -3594,16 +3575,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="10">
         <v>1168346374</v>
@@ -3672,16 +3653,16 @@
         <v>4582000000</v>
       </c>
       <c r="AG6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="19" t="s">
+      <c r="AJ6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AI6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -3689,16 +3670,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2">
         <v>0.31590000000000001</v>
@@ -3779,7 +3760,7 @@
         <v>0.39900000000000002</v>
       </c>
       <c r="AJ7" s="20">
-        <f>AA106/AA3</f>
+        <f>AA107/AA3</f>
         <v>0.46993419559791239</v>
       </c>
     </row>
@@ -3868,7 +3849,7 @@
     </row>
     <row r="9" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3975,16 +3956,16 @@
         <v>0</v>
       </c>
       <c r="AG9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AI9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AI9" s="19" t="s">
+      <c r="AJ9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AJ9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -3992,37 +3973,37 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1">
         <v>1305500000</v>
@@ -4067,7 +4048,7 @@
         <v>553000000</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="17">
         <f>AA9</f>
@@ -4091,49 +4072,49 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1">
         <v>153000000</v>
@@ -4163,10 +4144,10 @@
         <v>209000000</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -4180,13 +4161,13 @@
         <v>591600000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1">
         <v>1135403840</v>
@@ -4249,24 +4230,24 @@
         <v>553000000</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AH12" s="19" t="s">
+      <c r="AJ12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AI12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4551,16 +4532,16 @@
         <v>5485000000</v>
       </c>
       <c r="AG15" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ15" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="AH15" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4645,59 +4626,59 @@
       <c r="AA16" s="1">
         <v>9717000000</v>
       </c>
-      <c r="AG16" s="29">
-        <f>(AA35+Z35+Y35+X35+W35)/5</f>
-        <v>5.9658874506680448E-2</v>
-      </c>
-      <c r="AH16" s="30">
+      <c r="AG16" s="25">
+        <f>SUM(R35:AA35)/10</f>
+        <v>1.354902428852901E-2</v>
+      </c>
+      <c r="AH16" s="26">
         <f>AI101/AA3</f>
-        <v>11.138898343544362</v>
-      </c>
-      <c r="AI16" s="30">
+        <v>11.391586759246653</v>
+      </c>
+      <c r="AI16" s="26">
         <f>AI101/AA28</f>
-        <v>27.915339778220073</v>
-      </c>
-      <c r="AJ16" s="31">
-        <f>AI101/AA106</f>
-        <v>23.70310236600676</v>
+        <v>28.548605543360818</v>
+      </c>
+      <c r="AJ16" s="27">
+        <f>AI101/AA107</f>
+        <v>24.240812577498794</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1">
         <v>270400000</v>
@@ -4745,7 +4726,7 @@
         <v>652000000</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4828,10 +4809,19 @@
         <v>853000000</v>
       </c>
       <c r="AG18" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4913,14 +4903,41 @@
       <c r="AA19" s="10">
         <v>5650000000</v>
       </c>
-      <c r="AG19" s="32">
+      <c r="AB19" s="35">
+        <v>6671000001</v>
+      </c>
+      <c r="AC19" s="35">
+        <v>7932000002</v>
+      </c>
+      <c r="AD19" s="35">
+        <v>8843000003</v>
+      </c>
+      <c r="AE19" s="35">
+        <v>10166000004</v>
+      </c>
+      <c r="AF19" s="35">
+        <v>11001000005</v>
+      </c>
+      <c r="AG19" s="28">
         <f>AA40-AA56-AA61</f>
         <v>-19200000000</v>
       </c>
+      <c r="AH19" s="40">
+        <f>AI101/AB3</f>
+        <v>7.2500141306953569</v>
+      </c>
+      <c r="AI19" s="40">
+        <f>AI101/AB28</f>
+        <v>26.8607398793845</v>
+      </c>
+      <c r="AJ19" s="41">
+        <f>AI101/AB106</f>
+        <v>31.844416649540122</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5023,8 +5040,28 @@
         <f t="shared" si="3"/>
         <v>0.15849907730161994</v>
       </c>
+      <c r="AB20" s="16">
+        <f t="shared" ref="AB20" si="4">(AB19/AA19)-1</f>
+        <v>0.18070796477876105</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" ref="AC20" si="5">(AC19/AB19)-1</f>
+        <v>0.18902713248553038</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" ref="AD20" si="6">(AD19/AC19)-1</f>
+        <v>0.11485123559887755</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" ref="AE20" si="7">(AE19/AD19)-1</f>
+        <v>0.14960986096926043</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" ref="AF20" si="8">(AF19/AE19)-1</f>
+        <v>8.2136533609232121E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5106,8 +5143,34 @@
       <c r="AA21" s="2">
         <v>0.64100000000000001</v>
       </c>
+      <c r="AB21" s="37">
+        <f>AB19/AB3</f>
+        <v>0.48169542934507908</v>
+      </c>
+      <c r="AC21" s="37">
+        <f t="shared" ref="AC21:AF21" si="9">AC19/AC3</f>
+        <v>0.52290856364954841</v>
+      </c>
+      <c r="AD21" s="37">
+        <f t="shared" si="9"/>
+        <v>0.53753571229712482</v>
+      </c>
+      <c r="AE21" s="37">
+        <f t="shared" si="9"/>
+        <v>0.57208778863252674</v>
+      </c>
+      <c r="AF21" s="37">
+        <f t="shared" si="9"/>
+        <v>0.57602890381191751</v>
+      </c>
+      <c r="AI21" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ21" s="19" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5189,8 +5252,16 @@
       <c r="AA22" s="10">
         <v>3329000000</v>
       </c>
+      <c r="AI22" s="42">
+        <f>(-1*AA98)/AI101</f>
+        <v>1.1523279359797644E-2</v>
+      </c>
+      <c r="AJ22" s="43">
+        <f>AA107/AI101</f>
+        <v>4.1252742530926395E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5273,7 +5344,7 @@
         <v>0.37769999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5356,7 +5427,7 @@
         <v>816000000</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5439,7 +5510,7 @@
         <v>4145000000</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5522,7 +5593,7 @@
         <v>0.4703</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5605,7 +5676,7 @@
         <v>628000000</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5687,10 +5758,25 @@
       <c r="AA28" s="11">
         <v>3517000000</v>
       </c>
+      <c r="AB28" s="38">
+        <v>3738000001</v>
+      </c>
+      <c r="AC28" s="38">
+        <v>4490000002</v>
+      </c>
+      <c r="AD28" s="38">
+        <v>5172000003</v>
+      </c>
+      <c r="AE28" s="38">
+        <v>5893000004</v>
+      </c>
+      <c r="AF28" s="38">
+        <v>6402000005</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5706,95 +5792,115 @@
         <v>6.9566517189835579</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AA29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AA29" si="10">(F28/E28)-1</f>
         <v>-0.22900619951155365</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.20857699805068219</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.19616935483870968</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.5866566340607031E-2</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.31452784503631959</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.46675262479277957</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.188245636066809</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.34580426971042066</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.0662358642972491E-2</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>6.254082299150876E-2</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.12402028584601199</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.15087719298245617</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.80785123966942152</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.68685714285714283</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-8.4010840108401097E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.18269230769230771</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.50406504065040658</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.18877338877338878</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.2506406970784214</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.6393442622950616E-3</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.1669394435351883</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.23316970546984561</v>
       </c>
+      <c r="AB29" s="16">
+        <f t="shared" ref="AB29" si="11">(AB28/AA28)-1</f>
+        <v>6.2837646005118097E-2</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" ref="AC29" si="12">(AC28/AB28)-1</f>
+        <v>0.20117710026720781</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" ref="AD29" si="13">(AD28/AC28)-1</f>
+        <v>0.15189309592343303</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" ref="AE29" si="14">(AE28/AD28)-1</f>
+        <v>0.13940448580467635</v>
+      </c>
+      <c r="AF29" s="16">
+        <f t="shared" ref="AF29" si="15">(AF28/AE28)-1</f>
+        <v>8.6373663779824472E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5876,8 +5982,28 @@
       <c r="AA30" s="2">
         <v>0.39900000000000002</v>
       </c>
+      <c r="AB30" s="36">
+        <f>AB28/AB3</f>
+        <v>0.26991118499530653</v>
+      </c>
+      <c r="AC30" s="36">
+        <f t="shared" ref="AC30:AF30" si="16">AC28/AC3</f>
+        <v>0.29599841795767684</v>
+      </c>
+      <c r="AD30" s="36">
+        <f t="shared" si="16"/>
+        <v>0.31438818327153367</v>
+      </c>
+      <c r="AE30" s="36">
+        <f t="shared" si="16"/>
+        <v>0.33162633674732694</v>
+      </c>
+      <c r="AF30" s="36">
+        <f t="shared" si="16"/>
+        <v>0.33521834773274689</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5959,8 +6085,23 @@
       <c r="AA31" s="12">
         <v>3.78</v>
       </c>
+      <c r="AB31" s="39">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="AC31" s="39">
+        <v>4.82</v>
+      </c>
+      <c r="AD31" s="39">
+        <v>5.56</v>
+      </c>
+      <c r="AE31" s="39">
+        <v>6.33</v>
+      </c>
+      <c r="AF31" s="39">
+        <v>6.88</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6211,7 +6352,7 @@
     </row>
     <row r="35" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6219,99 +6360,99 @@
         <v>-2.8642472695225205E-3</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AA35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AA35" si="17">(D34-C34)/C34</f>
         <v>1.1919191919191918</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-0.54361866820276494</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.4356728667025755E-3</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-9.7722264150943393E-4</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9.6459041833872201E-6</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.1924476537120917E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-9.5037054610744489E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.891560964555648E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-6.2561799196787153E-4</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.2478190567674933E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4388489208633094E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.2742316784869974E-3</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.5240328253223915E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.9053117782909929E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.189801699716714E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-7.6834862385321098E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-6.5217391304347824E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.7906976744186046E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.050580997949419E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.7913468248429867E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.3689877961234746E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.1176470588235297E-3</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.36628588166373754</v>
       </c>
     </row>
@@ -6320,82 +6461,82 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="21" x14ac:dyDescent="0.25">
@@ -6403,82 +6544,82 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -6486,16 +6627,16 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1">
         <v>558457574</v>
@@ -6569,82 +6710,82 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -6652,16 +6793,16 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1">
         <v>558457574</v>
@@ -6976,7 +7117,7 @@
         <v>229000000</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7142,7 +7283,7 @@
         <v>21487000000</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7150,49 +7291,49 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1">
         <v>154900000</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1">
         <v>146000000</v>
@@ -7225,7 +7366,7 @@
         <v>328000000</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7233,49 +7374,49 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1">
         <v>47400000</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1">
         <v>15000000</v>
@@ -7308,7 +7449,7 @@
         <v>43000000</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7316,37 +7457,37 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1">
         <v>237200000</v>
@@ -7399,19 +7540,19 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1">
         <v>92200000</v>
@@ -7482,82 +7623,82 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7640,7 +7781,7 @@
         <v>2449000000</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7731,79 +7872,79 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1">
         <v>71135000000</v>
@@ -7972,7 +8113,7 @@
         <v>432000000</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8063,19 +8204,19 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1">
         <v>92600000</v>
@@ -8138,7 +8279,7 @@
         <v>164000000</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8146,70 +8287,70 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1">
         <v>142000000</v>
@@ -8221,7 +8362,7 @@
         <v>34000000</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8304,7 +8445,7 @@
         <v>920000000</v>
       </c>
       <c r="AA59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8490,28 +8631,28 @@
         <v>64900000</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1">
         <v>78600000</v>
@@ -8553,7 +8694,7 @@
         <v>61000000</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8810,82 +8951,82 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9012,13 +9153,13 @@
         <v>1220800000</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q68" s="1">
         <v>2127000000</v>
@@ -9142,16 +9283,16 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1">
         <v>-4076565492</v>
@@ -9474,82 +9615,82 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="21" x14ac:dyDescent="0.25">
@@ -9557,82 +9698,82 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9640,7 +9781,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1">
         <v>362400000</v>
@@ -9969,110 +10110,110 @@
     </row>
     <row r="80" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:AA80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AA80" si="18">B79/B3</f>
         <v>0</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -10081,7 +10222,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>51900000</v>
@@ -10096,7 +10237,7 @@
         <v>4200000</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H81" s="1">
         <v>-53600000</v>
@@ -10164,16 +10305,16 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1">
         <v>31287480</v>
@@ -10239,7 +10380,7 @@
         <v>32000000</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="21" x14ac:dyDescent="0.25">
@@ -10247,16 +10388,16 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1">
         <v>28779693</v>
@@ -10322,28 +10463,28 @@
         <v>-14000000</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH83" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI83" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AH83" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI83" s="69"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1">
         <v>5314083</v>
@@ -10367,70 +10508,70 @@
         <v>-45216127</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH84" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI84" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="AH84" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI84" s="70"/>
     </row>
     <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1">
         <v>-6327599</v>
@@ -10454,54 +10595,54 @@
         <v>313943</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1">
         <v>18500000</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AH85" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI85" s="45">
         <f>AA17</f>
         <v>652000000</v>
       </c>
@@ -10586,12 +10727,12 @@
         <v>-151000000</v>
       </c>
       <c r="AA86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI86" s="24">
+        <v>91</v>
+      </c>
+      <c r="AH86" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI86" s="45">
         <f>AA56</f>
         <v>1510000000</v>
       </c>
@@ -10678,10 +10819,10 @@
       <c r="AA87" s="10">
         <v>4142000000</v>
       </c>
-      <c r="AH87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI87" s="24">
+      <c r="AH87" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI87" s="45">
         <f>AA61</f>
         <v>18141000000</v>
       </c>
@@ -10768,126 +10909,126 @@
       <c r="AA88" s="1">
         <v>-1557000000</v>
       </c>
-      <c r="AH88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI88" s="34">
+      <c r="AH88" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI88" s="47">
         <f>AI85/(AI86+AI87)</f>
         <v>3.3178973080250369E-2</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:AA89" si="19">(-1*B88)/B3</f>
+        <v>0.2321620749031425</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.0389591923787857E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="19"/>
+        <v>7.6307058688937196E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.16035128997838635</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.16043908505921159</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.15705477957223921</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.18755975633075642</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.17264085679879065</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.20138446124419346</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.17317594693663815</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.18973574645254482</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.18093519344634601</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.16787506971556052</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.14575930944494631</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.2132509175197991</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.20158033362598771</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.20153269199413013</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.2188821752265861</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.22675804529201429</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.18966623876765085</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.20445529447665547</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.21200109349371241</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.21137063655030802</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.21673151750972763</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.19161976235146966</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.17665078284547311</v>
+      </c>
+      <c r="AH89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:AA89" si="7">(-1*B88)/B3</f>
-        <v>0.2321620749031425</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.0389591923787857E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.6307058688937196E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16035128997838635</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16043908505921159</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.15705477957223921</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.18755975633075642</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.17264085679879065</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.20138446124419346</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.17317594693663815</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.18973574645254482</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.18093519344634601</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16787506971556052</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14575930944494631</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.2132509175197991</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.20158033362598771</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.20153269199413013</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.2188821752265861</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.22675804529201429</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.18966623876765085</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.20445529447665547</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.21200109349371241</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.21137063655030802</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.21673151750972763</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.19161976235146966</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.17665078284547311</v>
-      </c>
-      <c r="AH89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI89" s="24">
+      <c r="AI89" s="45">
         <f>AA27</f>
         <v>628000000</v>
       </c>
@@ -10897,55 +11038,55 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1">
         <v>-1483286168</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1">
         <v>236000000</v>
@@ -10954,13 +11095,13 @@
         <v>281000000</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X90" s="1">
         <v>-174000000</v>
@@ -10972,12 +11113,12 @@
         <v>-12299000000</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AI90" s="24">
+      <c r="AI90" s="45">
         <f>AA25</f>
         <v>4145000000</v>
       </c>
@@ -11014,7 +11155,7 @@
         <v>-2000000</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1">
         <v>-142704087</v>
@@ -11023,51 +11164,51 @@
         <v>-231100000</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI91" s="34">
+        <v>91</v>
+      </c>
+      <c r="AH91" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI91" s="47">
         <f>AI89/AI90</f>
         <v>0.15150784077201448</v>
       </c>
@@ -11077,16 +11218,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>3810368</v>
@@ -11095,19 +11236,19 @@
         <v>4015852</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1">
         <v>257600000</v>
@@ -11116,48 +11257,48 @@
         <v>12500000</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI92" s="36">
+        <v>91</v>
+      </c>
+      <c r="AH92" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI92" s="47">
         <f>AI88*(1-AI91)</f>
         <v>2.8152098509828839E-2</v>
       </c>
@@ -11244,10 +11385,10 @@
       <c r="AA93" s="1">
         <v>-1496000000</v>
       </c>
-      <c r="AH93" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI93" s="66"/>
+      <c r="AH93" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI93" s="70"/>
     </row>
     <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11331,10 +11472,10 @@
       <c r="AA94" s="10">
         <v>-1496000000</v>
       </c>
-      <c r="AH94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI94" s="37">
+      <c r="AH94" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI94" s="48">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -11420,12 +11561,12 @@
       <c r="AA95" s="1">
         <v>-986000000</v>
       </c>
-      <c r="AH95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI95" s="39" cm="1">
+      <c r="AH95" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI95" s="50" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>0.83020000000000005</v>
+        <v>0.83109999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11433,16 +11574,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>1600000</v>
@@ -11508,12 +11649,12 @@
         <v>25000000</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI96" s="37">
+        <v>91</v>
+      </c>
+      <c r="AH96" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11522,28 +11663,28 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1">
         <v>-80600000</v>
@@ -11558,19 +11699,19 @@
         <v>-30900000</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S97" s="1">
         <v>-2050000000</v>
@@ -11594,17 +11735,17 @@
         <v>-1509000000</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI97" s="36">
+        <v>91</v>
+      </c>
+      <c r="AH97" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI97" s="47">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>7.6690110000000006E-2</v>
+        <v>7.6728855000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11615,7 +11756,7 @@
         <v>-722300000</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1">
         <v>-150000000</v>
@@ -11689,10 +11830,10 @@
       <c r="AA98" s="1">
         <v>-1157000000</v>
       </c>
-      <c r="AH98" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI98" s="66"/>
+      <c r="AH98" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI98" s="70"/>
     </row>
     <row r="99" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11714,7 +11855,7 @@
         <v>1637300000</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H99" s="1">
         <v>699800000</v>
@@ -11723,7 +11864,7 @@
         <v>193700000</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K99" s="1">
         <v>2800000</v>
@@ -11776,10 +11917,10 @@
       <c r="AA99" s="1">
         <v>-154000000</v>
       </c>
-      <c r="AH99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI99" s="24">
+      <c r="AH99" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI99" s="45">
         <f>AI86+AI87</f>
         <v>19651000000</v>
       </c>
@@ -11866,12 +12007,12 @@
       <c r="AA100" s="10">
         <v>-2297000000</v>
       </c>
-      <c r="AH100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI100" s="34">
+      <c r="AH100" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI100" s="47">
         <f>AI99/AI103</f>
-        <v>0.16677522771298298</v>
+        <v>0.16368134077331531</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11879,37 +12020,37 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1">
         <v>28000000</v>
@@ -11956,12 +12097,12 @@
       <c r="AA101" s="1">
         <v>20000000</v>
       </c>
-      <c r="AH101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI101" s="40" cm="1">
+      <c r="AH101" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI101" s="51" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>98178250000</v>
+        <v>100405445696</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12046,12 +12187,12 @@
       <c r="AA102" s="10">
         <v>369000000</v>
       </c>
-      <c r="AH102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI102" s="34">
+      <c r="AH102" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI102" s="47">
         <f>AI101/AI103</f>
-        <v>0.83322477228701697</v>
+        <v>0.83631865922668469</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12136,12 +12277,12 @@
       <c r="AA103" s="1">
         <v>82000000</v>
       </c>
-      <c r="AH103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI103" s="41">
+      <c r="AH103" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI103" s="52">
         <f>AI99+AI101</f>
-        <v>117829250000</v>
+        <v>120056445696</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12226,407 +12367,499 @@
       <c r="AA104" s="11">
         <v>451000000</v>
       </c>
-      <c r="AH104" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI104" s="66"/>
+      <c r="AH104" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI104" s="70"/>
     </row>
     <row r="105" spans="1:35" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-6.2932985204525673</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-0.33229200920749757</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-0.77714848559468108</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.8243093922651934</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.26287098728043601</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AA105" si="8">(H106/G106)-1</f>
-        <v>-2.7299760191846523</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.3110618242306626</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.482174688057041</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.54720384846662662</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.63777691410804516</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.55671570953962979</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.914882226980728</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.31070801638385026</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.6428571428571428</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.3040540540540539</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.9666666666666668</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>-5.6022408963585457E-2</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.39020771513353125</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>-3.2017075773746018E-2</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.1664829106945938E-2</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.37885985748218531</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.15676141257536602</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.15785554728220397</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.90627763041556153</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.92115027829313534</v>
-      </c>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI105" s="26">
+        <v>156</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:Z105" si="20">(B22*(1-$AI$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="20"/>
+        <v>909590229.19179738</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="20"/>
+        <v>229150398.06996381</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="20"/>
+        <v>463045572.97949338</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="20"/>
+        <v>480993848.00965011</v>
+      </c>
+      <c r="G105" s="1" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="20"/>
+        <v>71591411.338962555</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="20"/>
+        <v>399229481.30277443</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="20"/>
+        <v>397840579.01085639</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="20"/>
+        <v>1484016501.8094091</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="20"/>
+        <v>616914571.77322054</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="20"/>
+        <v>363995609.16767168</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="20"/>
+        <v>632927792.52110958</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="20"/>
+        <v>694202098.91435456</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="20"/>
+        <v>230491917.9734621</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="20"/>
+        <v>191219059.10735822</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="20"/>
+        <v>531858866.1037395</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="20"/>
+        <v>963623160.43425798</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="20"/>
+        <v>1628746924.0048251</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="20"/>
+        <v>1590412786.4897466</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="20"/>
+        <v>1552838600.7237635</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="20"/>
+        <v>1612081302.7744269</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="20"/>
+        <v>1683689505.4282265</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="20"/>
+        <v>1528357539.2038598</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="20"/>
+        <v>1933265862.4849215</v>
+      </c>
+      <c r="AA105" s="1">
+        <f>(AA22*(1-$AI$91))+AA77+AA88+AA81</f>
+        <v>1756630398.0699635</v>
+      </c>
+      <c r="AB105" s="29">
+        <f>AA105*(1+$AI$106)</f>
+        <v>2074927851.7776897</v>
+      </c>
+      <c r="AC105" s="29">
+        <f t="shared" ref="AC105:AF105" si="21">AB105*(1+$AI$106)</f>
+        <v>2450900083.9408817</v>
+      </c>
+      <c r="AD105" s="29">
+        <f t="shared" si="21"/>
+        <v>2894997633.9249644</v>
+      </c>
+      <c r="AE105" s="29">
+        <f t="shared" si="21"/>
+        <v>3419564655.1837573</v>
+      </c>
+      <c r="AF105" s="29">
+        <f t="shared" si="21"/>
+        <v>4039182033.847939</v>
+      </c>
+      <c r="AG105" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH105" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI105" s="54">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>6.8595172080991335E-2</v>
+        <v>6.8777746367269951E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-114900000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>608200000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>406100000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>90500000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>165100000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>208500000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-360700000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>112200000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>166300000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>257300000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>421400000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>186800000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>-170900000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>-224000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>-592000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>180000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>714000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>674000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>937000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>907000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>842000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>1161000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>1343000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>1131000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>2156000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>4142000000</v>
-      </c>
-      <c r="AB106" s="42">
-        <f>AA106*(1+$AI$106)</f>
-        <v>4587240089.4895391</v>
-      </c>
-      <c r="AC106" s="42">
-        <f t="shared" ref="AC106:AF106" si="9">AB106*(1+$AI$106)</f>
-        <v>5080340810.8691435</v>
-      </c>
-      <c r="AD106" s="42">
-        <f t="shared" si="9"/>
-        <v>5626446894.2271185</v>
-      </c>
-      <c r="AE106" s="42">
-        <f t="shared" si="9"/>
-        <v>6231256097.1952066</v>
-      </c>
-      <c r="AF106" s="42">
-        <f t="shared" si="9"/>
-        <v>6901078652.0835285</v>
-      </c>
-      <c r="AG106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:AA106" si="22">(C107/B107)-1</f>
+        <v>-6.2932985204525673</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.33229200920749757</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.77714848559468108</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.8243093922651934</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.26287098728043601</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="22"/>
+        <v>-2.7299760191846523</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="22"/>
+        <v>-1.3110618242306626</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.482174688057041</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.54720384846662662</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.63777691410804516</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.55671570953962979</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="22"/>
+        <v>-1.914882226980728</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.31070801638385026</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="22"/>
+        <v>1.6428571428571428</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="22"/>
+        <v>-1.3040540540540539</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="22"/>
+        <v>2.9666666666666668</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="22"/>
+        <v>-5.6022408963585457E-2</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.39020771513353125</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="22"/>
+        <v>-3.2017075773746018E-2</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="22"/>
+        <v>-7.1664829106945938E-2</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.37885985748218531</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.15676141257536602</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.15785554728220397</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.90627763041556153</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.92115027829313534</v>
+      </c>
+      <c r="AB106" s="33">
+        <v>3153000000</v>
+      </c>
+      <c r="AC106" s="33">
+        <v>3932000000</v>
+      </c>
+      <c r="AD106" s="33">
+        <v>4684000000</v>
+      </c>
+      <c r="AE106" s="33">
+        <v>5789000000</v>
+      </c>
+      <c r="AF106" s="33">
+        <v>6468000000</v>
+      </c>
+      <c r="AG106" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH106" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI106" s="56">
         <f>(SUM(AB4:AF4)/5)</f>
-        <v>0.10749398587386257</v>
+        <v>0.18119773747365658</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="43"/>
-      <c r="AC107" s="43"/>
-      <c r="AD107" s="43"/>
-      <c r="AE107" s="43"/>
-      <c r="AF107" s="46">
+      <c r="A107" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-114900000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>608200000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>406100000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>90500000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>165100000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>208500000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-360700000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>112200000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>166300000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>257300000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>421400000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>186800000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>-170900000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-224000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>-592000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>714000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>674000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>937000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>907000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>842000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1161000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1343000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>1131000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>2156000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>4142000000</v>
+      </c>
+      <c r="AB107" s="30"/>
+      <c r="AC107" s="30"/>
+      <c r="AD107" s="30"/>
+      <c r="AE107" s="30"/>
+      <c r="AF107" s="66">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>162256627987.25134</v>
-      </c>
-      <c r="AG107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI107" s="49">
+        <v>151439956373.73962</v>
+      </c>
+      <c r="AG107" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH107" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI107" s="58">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="46">
-        <f t="shared" ref="AB108:AD108" si="10">AB107+AB106</f>
-        <v>4587240089.4895391</v>
-      </c>
-      <c r="AC108" s="46">
-        <f t="shared" si="10"/>
-        <v>5080340810.8691435</v>
-      </c>
-      <c r="AD108" s="46">
-        <f t="shared" si="10"/>
-        <v>5626446894.2271185</v>
-      </c>
-      <c r="AE108" s="46">
-        <f>AE107+AE106</f>
-        <v>6231256097.1952066</v>
-      </c>
-      <c r="AF108" s="46">
+      <c r="AB108" s="66">
+        <f t="shared" ref="AB108:AE108" si="23">AB107+AB106</f>
+        <v>3153000000</v>
+      </c>
+      <c r="AC108" s="66">
+        <f t="shared" si="23"/>
+        <v>3932000000</v>
+      </c>
+      <c r="AD108" s="66">
+        <f t="shared" si="23"/>
+        <v>4684000000</v>
+      </c>
+      <c r="AE108" s="66">
+        <f t="shared" si="23"/>
+        <v>5789000000</v>
+      </c>
+      <c r="AF108" s="66">
         <f>AF107+AF106</f>
-        <v>169157706639.33487</v>
-      </c>
-      <c r="AG108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI108" s="51">
+        <v>157907956373.73962</v>
+      </c>
+      <c r="AG108" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH108" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI108" s="56">
         <f>AI105</f>
-        <v>6.8595172080991335E-2</v>
+        <v>6.8777746367269951E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC109" s="62"/>
+      <c r="AB109" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC109" s="67"/>
     </row>
     <row r="110" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC110" s="40">
+      <c r="AB110" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC110" s="51">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>139533629589.3652</v>
+        <v>127897061134.8566</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC111" s="40">
+      <c r="AB111" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC111" s="51">
         <f>AA40</f>
         <v>451000000</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC112" s="40">
+      <c r="AB112" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC112" s="51">
         <f>AI99</f>
         <v>19651000000</v>
       </c>
     </row>
     <row r="113" spans="27:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC113" s="40">
+      <c r="AB113" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC113" s="51">
         <f>AC110+AC111-AC112</f>
-        <v>120333629589.3652</v>
+        <v>108697061134.8566</v>
       </c>
     </row>
     <row r="114" spans="27:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC114" s="53">
+      <c r="AB114" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC114" s="60">
         <f>AA34*(1+(5*AG16))</f>
-        <v>1211178820.136411</v>
+        <v>996099423.79384351</v>
       </c>
     </row>
     <row r="115" spans="27:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="60"/>
-      <c r="AB115" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC115" s="55">
+      <c r="AA115" s="32"/>
+      <c r="AB115" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC115" s="62">
         <f>AC113/AC114</f>
-        <v>99.352488326878472</v>
+        <v>109.12270255198236</v>
       </c>
     </row>
     <row r="116" spans="27:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB116" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC116" s="56" cm="1">
+      <c r="AB116" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC116" s="63" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>104.75</v>
+        <v>107.84</v>
       </c>
     </row>
     <row r="117" spans="27:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB117" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC117" s="58">
+      <c r="AB117" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC117" s="64">
         <f>AC115/AC116-1</f>
-        <v>-5.1527557738630381E-2</v>
+        <v>1.1894496958293255E-2</v>
       </c>
     </row>
     <row r="118" spans="27:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB118" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC118" s="59" t="str">
+      <c r="AB118" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC118" s="65" t="str">
         <f>IF(AC115&gt;AC116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -12692,9 +12925,10 @@
     <hyperlink ref="Z74" r:id="rId51" tooltip="https://www.sec.gov/Archives/edgar/data/16875/000119312522134075/0001193125-22-134075-index.htm" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="AA36" r:id="rId52" tooltip="https://www.sec.gov/Archives/edgar/data/16875/000001687523000008/0000016875-23-000008-index.htm" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="AA74" r:id="rId53" tooltip="https://www.sec.gov/Archives/edgar/data/16875/000001687523000008/0000016875-23-000008-index.htm" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AB1" r:id="rId54" display="https://finbox.com/NYSE:CP/explorer/revenue_proj" xr:uid="{57666C78-1AE4-0F41-A261-76B57F4DCD77}"/>
+    <hyperlink ref="AB1" r:id="rId54" display="https://finbox.com/TSX:CP/explorer/revenue_proj" xr:uid="{57666C78-1AE4-0F41-A261-76B57F4DCD77}"/>
+    <hyperlink ref="AG106" r:id="rId55" xr:uid="{24321FB8-890B-624D-A92E-D67F4C6AFB8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId55"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>